--- a/img y otros/presupuesto.xlsx
+++ b/img y otros/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\P3_ORGA_G3\img y otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D6D508-CE8D-45D1-915E-7E309315043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1808851C-4E12-4D24-A171-078D7000B807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -147,6 +147,27 @@
   </si>
   <si>
     <t>RESISTENCIAS VARIOS</t>
+  </si>
+  <si>
+    <t>sub total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 M DE ALAMBRE ROJO </t>
+  </si>
+  <si>
+    <t>1 FLIP FLOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 TORNILLOS </t>
+  </si>
+  <si>
+    <t>4 TUERCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 CABLES DUPONT </t>
+  </si>
+  <si>
+    <t>5 CABLES DUPONT</t>
   </si>
 </sst>
 </file>
@@ -638,17 +659,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.109375" customWidth="1"/>
     <col min="2" max="2" width="72.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -981,37 +1002,98 @@
     </row>
     <row r="35" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <f>SUM(C31:C34)</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="12">
+        <v>45741</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="11">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3">
-        <f>SUM(C31:C37)</f>
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3">
+        <f>SUM(C36:C43)</f>
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="16">
-        <f>C5+C9+C14+C38+C21+C25+C30</f>
-        <v>442.95</v>
+      <c r="C45" s="16">
+        <f>C5+C9+C14+C35+C21+C25+C30+C44</f>
+        <v>501.65</v>
       </c>
     </row>
   </sheetData>

--- a/img y otros/presupuesto.xlsx
+++ b/img y otros/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\P3_ORGA_G3\img y otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1808851C-4E12-4D24-A171-078D7000B807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD78D3F-DBCB-4D63-90FB-D541035BD809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>5 CABLES DUPONT</t>
+  </si>
+  <si>
+    <t>46  CABLES DUPONT</t>
+  </si>
+  <si>
+    <t>BOMBILLA (CAMBIA DE COLOR)</t>
   </si>
 </sst>
 </file>
@@ -303,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -353,6 +359,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -659,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1068,32 +1080,212 @@
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
+      <c r="B42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="3">
+        <f>SUM(C36:C41)</f>
+        <v>58.7</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="17">
+        <v>45742</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="11">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="3">
-        <f>SUM(C36:C43)</f>
-        <v>58.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15" t="s">
+      <c r="C49" s="3">
+        <f>SUM(C43:C48)</f>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="3">
+        <f>SUM(C50:C55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="3">
+        <f>SUM(C57:C62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="11"/>
+    </row>
+    <row r="65" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="3">
+        <f>SUM(C64:C69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="16">
-        <f>C5+C9+C14+C35+C21+C25+C30+C44</f>
-        <v>501.65</v>
+      <c r="C75" s="16">
+        <f>C5+C9+C14+C35+C21+C25+C30+C42+C49+C56+C63+C70</f>
+        <v>586.15</v>
       </c>
     </row>
   </sheetData>

--- a/img y otros/presupuesto.xlsx
+++ b/img y otros/presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARROQUIN\Desktop\P3_ORGA_G3\img y otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD78D3F-DBCB-4D63-90FB-D541035BD809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA585EA3-53CC-42F6-905A-31F42448717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>BOMBILLA (CAMBIA DE COLOR)</t>
+  </si>
+  <si>
+    <t>MATERIAL PARA DECORAR</t>
+  </si>
+  <si>
+    <t>3 BARRITAS DE SILICON</t>
+  </si>
+  <si>
+    <t>CHICHARONES Y TORTILLAS</t>
   </si>
 </sst>
 </file>
@@ -671,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1110,23 +1119,42 @@
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
+      <c r="B45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="3">
+        <f>SUM(C43:C44)</f>
+        <v>84.5</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="12">
+        <v>45743</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="11">
+        <v>26.25</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
+      <c r="B47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
@@ -1134,158 +1162,18 @@
         <v>30</v>
       </c>
       <c r="C49" s="3">
-        <f>SUM(C43:C48)</f>
-        <v>84.5</v>
+        <f>SUM(C46:C48)</f>
+        <v>39.25</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="3">
-        <f>SUM(C50:C55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="11"/>
-    </row>
-    <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="3">
-        <f>SUM(C57:C62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="11"/>
-    </row>
-    <row r="65" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="3">
-        <f>SUM(C64:C69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="15" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="16">
-        <f>C5+C9+C14+C35+C21+C25+C30+C42+C49+C56+C63+C70</f>
-        <v>586.15</v>
+      <c r="C50" s="16">
+        <f>C5+C9+C14+C35+C21+C25+C30+C42+C45+C49</f>
+        <v>625.4</v>
       </c>
     </row>
   </sheetData>
